--- a/game_data/weapons.xlsx
+++ b/game_data/weapons.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LCH\Desktop\UnivStudies\4-1\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LCH\Desktop\UnivStudies\4-1\SW프로젝트 심화\Files\SWProject_team_Warhammer\game_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D0D11E-52E6-4545-8E96-27CE62D5D970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10023081-62EC-4714-8262-25603FC62409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1795,21 +1795,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O142" sqref="O142"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1924,6 +1930,9 @@
       </c>
     </row>
     <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1953,6 +1962,9 @@
       </c>
     </row>
     <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1983,7 +1995,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2021,7 +2033,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -2059,7 +2071,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -2097,7 +2109,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -2138,7 +2150,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -2176,7 +2188,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2217,7 +2229,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2254,6 +2266,9 @@
       </c>
     </row>
     <row r="13" spans="1:15">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -2284,7 +2299,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2319,7 +2334,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2354,7 +2369,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2395,7 +2410,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2439,7 +2454,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -2471,7 +2486,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -2506,7 +2521,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2538,7 +2553,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -2570,7 +2585,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -2602,7 +2617,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -2634,7 +2649,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -2671,6 +2686,9 @@
       </c>
     </row>
     <row r="25" spans="1:15">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -2706,6 +2724,9 @@
       </c>
     </row>
     <row r="26" spans="1:15">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -2741,6 +2762,9 @@
       </c>
     </row>
     <row r="27" spans="1:15">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -2776,6 +2800,9 @@
       </c>
     </row>
     <row r="28" spans="1:15">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -2814,6 +2841,9 @@
       </c>
     </row>
     <row r="29" spans="1:15">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2849,6 +2879,9 @@
       </c>
     </row>
     <row r="30" spans="1:15">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -2887,6 +2920,9 @@
       </c>
     </row>
     <row r="31" spans="1:15">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>8</v>
       </c>
@@ -2916,6 +2952,9 @@
       </c>
     </row>
     <row r="32" spans="1:15">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -2948,6 +2987,9 @@
       </c>
     </row>
     <row r="33" spans="1:15">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -2980,6 +3022,9 @@
       </c>
     </row>
     <row r="34" spans="1:15">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -3018,6 +3063,9 @@
       </c>
     </row>
     <row r="35" spans="1:15">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -3059,6 +3107,9 @@
       </c>
     </row>
     <row r="36" spans="1:15">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>8</v>
       </c>
@@ -3088,6 +3139,9 @@
       </c>
     </row>
     <row r="37" spans="1:15">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
@@ -3120,6 +3174,9 @@
       </c>
     </row>
     <row r="38" spans="1:15">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +3210,7 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -3188,7 +3245,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -3223,7 +3280,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -3261,7 +3318,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -3293,7 +3350,7 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -3328,7 +3385,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -3363,7 +3420,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -3398,7 +3455,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -3436,7 +3493,7 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -3477,7 +3534,7 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -3521,7 +3578,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -3559,7 +3616,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -3591,7 +3648,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -3623,7 +3680,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -3658,7 +3715,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -3693,7 +3750,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -3728,7 +3785,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -3766,7 +3823,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -3798,7 +3855,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -3836,7 +3893,7 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -3874,7 +3931,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -3915,7 +3972,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -3959,7 +4016,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -3991,7 +4048,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -4026,7 +4083,7 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -4061,7 +4118,7 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>8</v>
@@ -4096,7 +4153,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -4131,7 +4188,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -4163,7 +4220,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -4198,7 +4255,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -4230,7 +4287,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -4265,7 +4322,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -4297,7 +4354,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -4332,7 +4389,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4364,7 +4421,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -4396,7 +4453,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -4434,7 +4491,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -4466,7 +4523,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -4498,7 +4555,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -4530,7 +4587,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -4568,7 +4625,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -4600,7 +4657,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -4632,7 +4689,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -4670,7 +4727,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -4705,7 +4762,7 @@
     </row>
     <row r="83" spans="1:15">
       <c r="A83">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -4740,7 +4797,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -4772,7 +4829,7 @@
     </row>
     <row r="85" spans="1:15">
       <c r="A85">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -4810,7 +4867,7 @@
     </row>
     <row r="86" spans="1:15">
       <c r="A86">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -4848,7 +4905,7 @@
     </row>
     <row r="87" spans="1:15">
       <c r="A87">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -4883,7 +4940,7 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -4915,7 +4972,7 @@
     </row>
     <row r="89" spans="1:15">
       <c r="A89">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -4953,7 +5010,7 @@
     </row>
     <row r="90" spans="1:15">
       <c r="A90">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -4988,7 +5045,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -5023,7 +5080,7 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>8</v>
@@ -5055,7 +5112,7 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -5087,7 +5144,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>8</v>
@@ -5119,7 +5176,7 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -5157,7 +5214,7 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -5195,7 +5252,7 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -5236,7 +5293,7 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -5274,7 +5331,7 @@
     </row>
     <row r="99" spans="1:15">
       <c r="A99">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -5315,7 +5372,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
@@ -5347,7 +5404,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -5385,7 +5442,7 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -5423,7 +5480,7 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -5464,7 +5521,7 @@
     </row>
     <row r="104" spans="1:15">
       <c r="A104">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -5496,7 +5553,7 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -5531,7 +5588,7 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -5563,7 +5620,7 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -5601,7 +5658,7 @@
     </row>
     <row r="108" spans="1:15">
       <c r="A108">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -5639,7 +5696,7 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -5683,7 +5740,7 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -5724,7 +5781,7 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -5765,7 +5822,7 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -5806,7 +5863,7 @@
     </row>
     <row r="113" spans="1:15">
       <c r="A113">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -5844,7 +5901,7 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -5885,7 +5942,7 @@
     </row>
     <row r="115" spans="1:15">
       <c r="A115">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -5926,7 +5983,7 @@
     </row>
     <row r="116" spans="1:15">
       <c r="A116">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -5970,7 +6027,7 @@
     </row>
     <row r="117" spans="1:15">
       <c r="A117">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -6002,7 +6059,7 @@
     </row>
     <row r="118" spans="1:15">
       <c r="A118">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -6034,7 +6091,7 @@
     </row>
     <row r="119" spans="1:15">
       <c r="A119">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -6069,7 +6126,7 @@
     </row>
     <row r="120" spans="1:15">
       <c r="A120">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -6104,7 +6161,7 @@
     </row>
     <row r="121" spans="1:15">
       <c r="A121">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -6139,7 +6196,7 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -6171,7 +6228,7 @@
     </row>
     <row r="123" spans="1:15">
       <c r="A123">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -6206,7 +6263,7 @@
     </row>
     <row r="124" spans="1:15">
       <c r="A124">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -6238,7 +6295,7 @@
     </row>
     <row r="125" spans="1:15">
       <c r="A125">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -6270,7 +6327,7 @@
     </row>
     <row r="126" spans="1:15">
       <c r="A126">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -6308,7 +6365,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -6346,7 +6403,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -6387,7 +6444,7 @@
     </row>
     <row r="129" spans="1:15">
       <c r="A129">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -6419,7 +6476,7 @@
     </row>
     <row r="130" spans="1:15">
       <c r="A130">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -6457,7 +6514,7 @@
     </row>
     <row r="131" spans="1:15">
       <c r="A131">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -6489,7 +6546,7 @@
     </row>
     <row r="132" spans="1:15">
       <c r="A132">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -6524,7 +6581,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -6556,7 +6613,7 @@
     </row>
     <row r="134" spans="1:15">
       <c r="A134">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -6588,7 +6645,7 @@
     </row>
     <row r="135" spans="1:15">
       <c r="A135">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -6626,7 +6683,7 @@
     </row>
     <row r="136" spans="1:15">
       <c r="A136">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -6658,7 +6715,7 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -6696,7 +6753,7 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
